--- a/data/trans_camb/P2A_ner_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,77</t>
+          <t>0,06; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,77</t>
+          <t>-0,58; 3,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,15</t>
+          <t>-0,03; 4,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,52</t>
+          <t>-1,07; 3,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,96</t>
+          <t>1,69; 7,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,11</t>
+          <t>-1,56; 1,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,33</t>
+          <t>0,08; 3,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,57</t>
+          <t>1,0; 4,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,53</t>
+          <t>-0,05; 2,6</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 424,86</t>
+          <t>-9,75; 501,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 410,94</t>
+          <t>-35,6; 341,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 409,62</t>
+          <t>-12,88; 464,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 587,73</t>
+          <t>-51,81; 665,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,54; 1207,22</t>
+          <t>35,95; 1330,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,26; 294,52</t>
+          <t>-52,84; 324,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 307,64</t>
+          <t>-3,31; 330,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,35; 420,1</t>
+          <t>40,55; 444,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 238,33</t>
+          <t>-6,07; 246,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,47</t>
+          <t>-1,94; 3,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,8</t>
+          <t>-2,46; 2,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,53</t>
+          <t>-3,5; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,33</t>
+          <t>-1,35; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,87</t>
+          <t>-1,88; 3,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,8</t>
+          <t>-1,52; 3,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,06</t>
+          <t>-1,12; 2,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,65</t>
+          <t>-1,37; 2,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,63</t>
+          <t>-2,0; 1,77</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 171,3</t>
+          <t>-43,43; 161,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 144,14</t>
+          <t>-54,68; 161,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 87,78</t>
+          <t>-72,44; 80,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 204,3</t>
+          <t>-31,44; 218,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 173,21</t>
+          <t>-40,64; 182,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 183,95</t>
+          <t>-34,14; 182,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 119,08</t>
+          <t>-26,84; 113,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 103,91</t>
+          <t>-30,14; 116,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 61,14</t>
+          <t>-44,14; 71,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,13</t>
+          <t>-1,65; 2,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,6</t>
+          <t>0,36; 5,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,52</t>
+          <t>-3,5; 1,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,28</t>
+          <t>-6,25; 2,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 16,36</t>
+          <t>2,04; 15,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 3,59</t>
+          <t>-5,69; 3,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,65</t>
+          <t>-1,9; 1,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,89</t>
+          <t>1,7; 6,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,17</t>
+          <t>-3,56; 1,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 105,5</t>
+          <t>-41,71; 116,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 252,31</t>
+          <t>2,87; 261,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,42; 63,56</t>
+          <t>-76,64; 61,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,74; 84,58</t>
+          <t>-74,77; 101,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,87; 506,3</t>
+          <t>14,18; 512,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 160,58</t>
+          <t>-66,73; 142,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 62,13</t>
+          <t>-42,86; 79,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,66; 266,57</t>
+          <t>34,09; 254,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,73; 36,32</t>
+          <t>-73,14; 31,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,73</t>
+          <t>-2,12; 0,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,1</t>
+          <t>-0,02; 3,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,32</t>
+          <t>-1,41; 1,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,52</t>
+          <t>-1,84; 2,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,16</t>
+          <t>2,28; 7,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 55,27</t>
+          <t>-1,16; 56,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,84</t>
+          <t>-1,41; 0,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,31</t>
+          <t>1,52; 4,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 37,14</t>
+          <t>-0,35; 34,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,64; 33,44</t>
+          <t>-56,06; 22,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 120,54</t>
+          <t>-1,2; 128,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 54,59</t>
+          <t>-37,47; 64,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 75,16</t>
+          <t>-33,74; 79,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,57; 205,9</t>
+          <t>37,17; 219,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 1831,0</t>
+          <t>-24,44; 1664,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 29,22</t>
+          <t>-35,48; 33,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34,62; 143,13</t>
+          <t>35,7; 146,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 1057,05</t>
+          <t>-10,44; 1087,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,78</t>
+          <t>-2,6; 2,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,66</t>
+          <t>-0,68; 4,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,31</t>
+          <t>-1,27; 4,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,72</t>
+          <t>-1,69; 3,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,77; 14,15</t>
+          <t>7,95; 14,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,35</t>
+          <t>-2,44; 2,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,53</t>
+          <t>-1,04; 2,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,02</t>
+          <t>4,65; 9,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,4</t>
+          <t>-1,17; 2,29</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,18; 135,48</t>
+          <t>-54,73; 156,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 258,24</t>
+          <t>-15,92; 246,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 225,24</t>
+          <t>-30,5; 237,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 97,97</t>
+          <t>-25,06; 98,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>113,7; 363,57</t>
+          <t>112,85; 390,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 58,13</t>
+          <t>-37,5; 58,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 71,97</t>
+          <t>-19,64; 73,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>78,97; 267,31</t>
+          <t>80,56; 263,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 69,77</t>
+          <t>-21,59; 63,37</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,49</t>
+          <t>-1,83; 2,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,7</t>
+          <t>-0,52; 4,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,45</t>
+          <t>-1,74; 3,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,53</t>
+          <t>-2,17; 1,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,33</t>
+          <t>4,58; 9,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,85</t>
+          <t>-1,84; 1,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,28</t>
+          <t>-1,82; 1,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,0</t>
+          <t>3,82; 7,78</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,46</t>
+          <t>-1,59; 1,61</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 387,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,3; 588,32</t>
+          <t>-33,59; 694,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 763,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 36,37</t>
+          <t>-34,41; 31,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>70,93; 205,3</t>
+          <t>74,59; 210,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 41,93</t>
+          <t>-29,73; 43,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 31,5</t>
+          <t>-33,7; 37,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>73,27; 198,89</t>
+          <t>70,03; 199,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 36,71</t>
+          <t>-30,98; 40,93</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,07</t>
+          <t>-0,62; 1,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,76</t>
+          <t>0,84; 2,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,23</t>
+          <t>-0,69; 1,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,42</t>
+          <t>-0,75; 1,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,22; 7,75</t>
+          <t>5,08; 7,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 23,88</t>
+          <t>-0,46; 22,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,95</t>
+          <t>-0,37; 0,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,29; 4,94</t>
+          <t>3,33; 4,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 13,69</t>
+          <t>-0,11; 12,61</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 45,63</t>
+          <t>-18,65; 47,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>29,88; 114,63</t>
+          <t>25,52; 117,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 52,55</t>
+          <t>-21,73; 51,17</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 35,19</t>
+          <t>-15,64; 32,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>101,92; 190,52</t>
+          <t>99,81; 189,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 546,5</t>
+          <t>-9,67; 504,6</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 27,94</t>
+          <t>-9,29; 29,08</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>81,4; 148,34</t>
+          <t>80,36; 145,65</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 378,92</t>
+          <t>-2,74; 361,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_ner_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
